--- a/flyers/Mechelen_2019-2020.xlsx
+++ b/flyers/Mechelen_2019-2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="32">
   <si>
     <t xml:space="preserve"> Juli 2019</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">Karine</t>
   </si>
   <si>
+    <t xml:space="preserve">Feestdag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoepertingen</t>
   </si>
   <si>
@@ -106,13 +109,10 @@
     <t xml:space="preserve"> Juni 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Feestdag</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dag van de Arbeid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hemelvaart</t>
+    <t xml:space="preserve">Geen les</t>
   </si>
   <si>
     <t xml:space="preserve">Brugdag</t>
@@ -301,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,10 +350,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,6 +386,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,10 +404,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -487,14 +483,6 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -579,10 +567,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S107" activeCellId="0" sqref="S107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A107" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J129" activeCellId="0" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1349,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="8"/>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N22" s="7" t="n">
@@ -1386,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N23" s="7" t="n">
@@ -1407,7 +1395,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="7" t="n">
@@ -1423,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N24" s="7" t="n">
@@ -1460,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="7" t="n">
@@ -1497,7 +1485,7 @@
         <v>15</v>
       </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N26" s="7" t="n">
@@ -1530,7 +1518,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N27" s="7" t="n">
@@ -1561,7 +1549,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="7" t="n">
@@ -1596,7 +1584,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N29" s="7" t="n">
@@ -1627,7 +1615,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="7" t="n">
@@ -1658,7 +1646,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N31" s="7" t="n">
@@ -1689,7 +1677,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N32" s="7" t="n">
@@ -1720,30 +1708,30 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="12"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
@@ -1761,10 +1749,10 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="17"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="1"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="18" t="s">
+      <c r="O35" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P35" s="2"/>
@@ -1821,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="8"/>
@@ -1887,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="8"/>
@@ -1911,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="O39" s="7"/>
-      <c r="P39" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="19" t="s">
+      <c r="P39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1970,7 +1958,7 @@
       <c r="J41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="K41" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="8"/>
@@ -1981,10 +1969,10 @@
         <v>5</v>
       </c>
       <c r="O41" s="7"/>
-      <c r="P41" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="19" t="s">
+      <c r="P41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2065,7 +2053,7 @@
       <c r="D44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="8"/>
@@ -2085,7 +2073,7 @@
       <c r="N44" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="O44" s="20"/>
+      <c r="O44" s="19"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
     </row>
@@ -2116,7 +2104,7 @@
       <c r="N45" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="O45" s="21"/>
+      <c r="O45" s="20"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
@@ -2155,7 +2143,7 @@
       <c r="P46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q46" s="19" t="s">
+      <c r="Q46" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2176,9 +2164,11 @@
       <c r="H47" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="21"/>
       <c r="L47" s="8"/>
       <c r="M47" s="6" t="s">
         <v>12</v>
@@ -2208,10 +2198,10 @@
         <v>12</v>
       </c>
       <c r="I48" s="7"/>
-      <c r="J48" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="19" t="s">
+      <c r="J48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L48" s="8"/>
@@ -2278,10 +2268,10 @@
         <v>14</v>
       </c>
       <c r="I50" s="7"/>
-      <c r="J50" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="19" t="s">
+      <c r="J50" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L50" s="8"/>
@@ -2303,10 +2293,10 @@
         <v>15</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="8"/>
@@ -2348,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10" t="s">
@@ -2373,10 +2363,10 @@
         <v>17</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="8"/>
@@ -2387,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
@@ -2401,10 +2391,10 @@
         <v>17</v>
       </c>
       <c r="O53" s="7"/>
-      <c r="P53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="19" t="s">
+      <c r="P53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2457,10 +2447,10 @@
         <v>19</v>
       </c>
       <c r="I55" s="7"/>
-      <c r="J55" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="19" t="s">
+      <c r="J55" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L55" s="8"/>
@@ -2471,10 +2461,10 @@
         <v>19</v>
       </c>
       <c r="O55" s="7"/>
-      <c r="P55" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="19" t="s">
+      <c r="P55" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2527,10 +2517,10 @@
         <v>21</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="19" t="s">
+      <c r="J57" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L57" s="8"/>
@@ -2552,10 +2542,10 @@
         <v>22</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="8"/>
@@ -2609,9 +2599,6 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
@@ -2621,10 +2608,10 @@
         <v>24</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="8"/>
@@ -2647,9 +2634,6 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
@@ -2681,9 +2665,6 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
@@ -2703,10 +2684,10 @@
         <v>26</v>
       </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="19" t="s">
+      <c r="J62" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L62" s="8"/>
@@ -2719,9 +2700,6 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
@@ -2753,9 +2731,6 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
@@ -2775,10 +2750,10 @@
         <v>28</v>
       </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="19" t="s">
+      <c r="J64" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L64" s="8"/>
@@ -2791,9 +2766,6 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
@@ -2825,9 +2797,6 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
@@ -2859,9 +2828,6 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
     </row>
     <row r="67" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
@@ -2889,83 +2855,73 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="26"/>
-    </row>
-    <row r="68" customFormat="false" ht="8.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
-    </row>
+    </row>
+    <row r="68" customFormat="false" ht="8.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="27" t="s">
+      <c r="C69" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="28"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="27" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="28"/>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="33" t="s">
+      <c r="F70" s="29"/>
+      <c r="G70" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32" t="s">
+      <c r="H70" s="31"/>
+      <c r="I70" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="32" t="s">
+      <c r="J70" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K70" s="32" t="s">
+      <c r="K70" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L70" s="30"/>
-      <c r="M70" s="33" t="s">
+      <c r="L70" s="29"/>
+      <c r="M70" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32" t="s">
+      <c r="N70" s="31"/>
+      <c r="O70" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P70" s="32" t="s">
+      <c r="P70" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q70" s="32" t="s">
+      <c r="Q70" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2976,29 +2932,29 @@
       <c r="B71" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="32" t="n">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I71" s="36"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N71" s="32" t="n">
+      <c r="I71" s="35"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
@@ -3007,29 +2963,29 @@
       <c r="B72" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="32" t="n">
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N72" s="32" t="n">
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N72" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
@@ -3038,31 +2994,31 @@
       <c r="B73" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="32" t="n">
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N73" s="32" t="n">
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="O73" s="32"/>
-      <c r="P73" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="19" t="s">
+      <c r="O73" s="31"/>
+      <c r="P73" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3073,33 +3029,33 @@
       <c r="B74" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="32" t="n">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="30"/>
-      <c r="M74" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N74" s="32" t="n">
+      <c r="I74" s="31"/>
+      <c r="J74" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="29"/>
+      <c r="M74" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
@@ -3108,31 +3064,31 @@
       <c r="B75" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="32" t="n">
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N75" s="32" t="n">
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N75" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="O75" s="37"/>
-      <c r="P75" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="19" t="s">
+      <c r="O75" s="36"/>
+      <c r="P75" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3143,33 +3099,33 @@
       <c r="B76" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="32" t="n">
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="I76" s="32"/>
-      <c r="J76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" s="30"/>
-      <c r="M76" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76" s="32" t="n">
+      <c r="I76" s="31"/>
+      <c r="J76" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="29"/>
+      <c r="M76" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="O76" s="37"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
@@ -3178,33 +3134,33 @@
       <c r="B77" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="30"/>
-      <c r="G77" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N77" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
+      <c r="E77" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="29"/>
+      <c r="G77" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="O77" s="33"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
@@ -3213,29 +3169,29 @@
       <c r="B78" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N78" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N78" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
     </row>
     <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
@@ -3244,33 +3200,33 @@
       <c r="B79" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="C79" s="32"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="30"/>
-      <c r="G79" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N79" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N79" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
@@ -3279,31 +3235,31 @@
       <c r="B80" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N80" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="O80" s="32"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N80" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O80" s="31"/>
       <c r="P80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q80" s="19" t="s">
+      <c r="Q80" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3314,33 +3270,33 @@
       <c r="B81" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="I81" s="37"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I81" s="36"/>
       <c r="J81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" s="30"/>
-      <c r="M81" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N81" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="O81" s="37"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
+      <c r="K81" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="29"/>
+      <c r="M81" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O81" s="36"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
@@ -3349,27 +3305,27 @@
       <c r="B82" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="32" t="n">
-        <v>12</v>
-      </c>
-      <c r="I82" s="37"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N82" s="32" t="n">
-        <v>12</v>
-      </c>
-      <c r="O82" s="37"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="31" t="n">
+        <v>12</v>
+      </c>
+      <c r="I82" s="36"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N82" s="31" t="n">
+        <v>12</v>
+      </c>
+      <c r="O82" s="36"/>
       <c r="P82" s="10" t="s">
         <v>15</v>
       </c>
@@ -3384,33 +3340,33 @@
       <c r="B83" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="32" t="n">
-        <v>13</v>
-      </c>
-      <c r="I83" s="37"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="31" t="n">
+        <v>13</v>
+      </c>
+      <c r="I83" s="36"/>
       <c r="J83" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="30"/>
-      <c r="M83" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N83" s="32" t="n">
-        <v>13</v>
-      </c>
-      <c r="O83" s="37"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" s="31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O83" s="36"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
@@ -3419,35 +3375,35 @@
       <c r="B84" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="32" t="n">
+      <c r="C84" s="36"/>
+      <c r="D84" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="29"/>
+      <c r="G84" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="I84" s="37"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N84" s="32" t="n">
+      <c r="I84" s="36"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="O84" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39" t="s">
+      <c r="O84" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3458,31 +3414,31 @@
       <c r="B85" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="32" t="n">
-        <v>15</v>
-      </c>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N85" s="32" t="n">
-        <v>15</v>
-      </c>
-      <c r="O85" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39" t="s">
+      <c r="C85" s="36"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N85" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="O85" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3493,33 +3449,33 @@
       <c r="B86" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="30"/>
-      <c r="G86" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="32" t="n">
+      <c r="C86" s="36"/>
+      <c r="D86" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="29"/>
+      <c r="G86" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="I86" s="36"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N86" s="32" t="n">
+      <c r="I86" s="35"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N86" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="O86" s="37"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
@@ -3528,31 +3484,31 @@
       <c r="B87" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="32" t="n">
+      <c r="C87" s="36"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="I87" s="37"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N87" s="32" t="n">
+      <c r="I87" s="36"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N87" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="O87" s="37"/>
-      <c r="P87" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q87" s="19" t="s">
+      <c r="O87" s="36"/>
+      <c r="P87" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3563,33 +3519,33 @@
       <c r="B88" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="32" t="n">
+      <c r="C88" s="35"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="31" t="n">
         <v>18</v>
       </c>
-      <c r="I88" s="37"/>
-      <c r="J88" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" s="30"/>
-      <c r="M88" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N88" s="32" t="n">
+      <c r="I88" s="36"/>
+      <c r="J88" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="29"/>
+      <c r="M88" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N88" s="31" t="n">
         <v>18</v>
       </c>
-      <c r="O88" s="37"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
@@ -3598,31 +3554,31 @@
       <c r="B89" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="32" t="n">
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="31" t="n">
         <v>19</v>
       </c>
-      <c r="I89" s="37"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="32" t="n">
+      <c r="I89" s="36"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="31" t="n">
         <v>19</v>
       </c>
-      <c r="O89" s="37"/>
-      <c r="P89" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q89" s="19" t="s">
+      <c r="O89" s="36"/>
+      <c r="P89" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3633,33 +3589,33 @@
       <c r="B90" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="32" t="n">
-        <v>20</v>
-      </c>
-      <c r="I90" s="37"/>
-      <c r="J90" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L90" s="30"/>
-      <c r="M90" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N90" s="32" t="n">
-        <v>20</v>
-      </c>
-      <c r="O90" s="37"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="I90" s="36"/>
+      <c r="J90" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" s="29"/>
+      <c r="M90" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N90" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="O90" s="36"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
@@ -3668,33 +3624,33 @@
       <c r="B91" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="30"/>
-      <c r="G91" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="32" t="n">
+      <c r="C91" s="31"/>
+      <c r="D91" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="29"/>
+      <c r="G91" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="31" t="n">
         <v>21</v>
       </c>
-      <c r="I91" s="37"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N91" s="32" t="n">
+      <c r="I91" s="36"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N91" s="31" t="n">
         <v>21</v>
       </c>
-      <c r="O91" s="36"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
@@ -3703,29 +3659,29 @@
       <c r="B92" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="32" t="n">
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="31" t="n">
         <v>22</v>
       </c>
-      <c r="I92" s="36"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N92" s="32" t="n">
+      <c r="I92" s="35"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N92" s="31" t="n">
         <v>22</v>
       </c>
-      <c r="O92" s="36"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
     </row>
     <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
@@ -3734,33 +3690,33 @@
       <c r="B93" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" s="32" t="n">
+      <c r="C93" s="31"/>
+      <c r="D93" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="29"/>
+      <c r="G93" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="31" t="n">
         <v>23</v>
       </c>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N93" s="32" t="n">
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N93" s="31" t="n">
         <v>23</v>
       </c>
-      <c r="O93" s="37"/>
-      <c r="P93" s="32"/>
-      <c r="Q93" s="32"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
@@ -3769,31 +3725,31 @@
       <c r="B94" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="32" t="n">
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="31" t="n">
         <v>24</v>
       </c>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N94" s="32" t="n">
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N94" s="31" t="n">
         <v>24</v>
       </c>
-      <c r="O94" s="37"/>
-      <c r="P94" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q94" s="19" t="s">
+      <c r="O94" s="36"/>
+      <c r="P94" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q94" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3804,29 +3760,29 @@
       <c r="B95" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="32" t="n">
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" s="32" t="n">
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
@@ -3835,31 +3791,31 @@
       <c r="B96" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="32" t="n">
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="31" t="n">
         <v>26</v>
       </c>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N96" s="32" t="n">
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N96" s="31" t="n">
         <v>26</v>
       </c>
-      <c r="O96" s="32"/>
-      <c r="P96" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q96" s="19" t="s">
+      <c r="O96" s="31"/>
+      <c r="P96" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q96" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3870,29 +3826,29 @@
       <c r="B97" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="32" t="n">
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="31" t="n">
         <v>27</v>
       </c>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="30"/>
-      <c r="M97" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N97" s="32" t="n">
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N97" s="31" t="n">
         <v>27</v>
       </c>
-      <c r="O97" s="32"/>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="32"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
@@ -3901,33 +3857,33 @@
       <c r="B98" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="C98" s="37"/>
+      <c r="C98" s="36"/>
       <c r="D98" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="30"/>
-      <c r="G98" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="32" t="n">
+      <c r="E98" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="29"/>
+      <c r="G98" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="31" t="n">
         <v>28</v>
       </c>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N98" s="32" t="n">
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N98" s="31" t="n">
         <v>28</v>
       </c>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
     </row>
     <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
@@ -3936,29 +3892,29 @@
       <c r="B99" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="40" t="n">
+      <c r="C99" s="36"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="39" t="n">
         <v>29</v>
       </c>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N99" s="32" t="n">
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N99" s="31" t="n">
         <v>29</v>
       </c>
-      <c r="O99" s="34"/>
-      <c r="P99" s="34"/>
-      <c r="Q99" s="34"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
     </row>
     <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
@@ -3967,29 +3923,29 @@
       <c r="B100" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="C100" s="41"/>
+      <c r="C100" s="40"/>
       <c r="D100" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N100" s="32" t="n">
+      <c r="F100" s="29"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N100" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="O100" s="37"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
@@ -3998,108 +3954,108 @@
       <c r="B101" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N101" s="32" t="n">
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N101" s="31" t="n">
         <v>31</v>
       </c>
-      <c r="O101" s="32"/>
+      <c r="O101" s="31"/>
       <c r="P101" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q101" s="19" t="s">
+      <c r="Q101" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="30"/>
-      <c r="N102" s="30"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="30"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
     </row>
     <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="27" t="s">
+      <c r="C103" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J103" s="28"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="28"/>
-      <c r="O103" s="27" t="s">
+      <c r="D103" s="27"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="29"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="28"/>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="7"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="33" t="s">
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32" t="s">
+      <c r="H104" s="31"/>
+      <c r="I104" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J104" s="32" t="s">
+      <c r="J104" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K104" s="32" t="s">
+      <c r="K104" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L104" s="30"/>
-      <c r="M104" s="33" t="s">
+      <c r="L104" s="29"/>
+      <c r="M104" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32" t="s">
+      <c r="N104" s="31"/>
+      <c r="O104" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P104" s="32" t="s">
+      <c r="P104" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q104" s="32" t="s">
+      <c r="Q104" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4110,33 +4066,35 @@
       <c r="B105" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" s="32" t="n">
+      <c r="C105" s="36"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I105" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J105" s="42" t="s">
+      <c r="I105" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K105" s="43"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N105" s="32" t="n">
+      <c r="K105" s="42"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N105" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="O105" s="32"/>
-      <c r="P105" s="32"/>
-      <c r="Q105" s="32"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q105" s="42"/>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
@@ -4145,35 +4103,35 @@
       <c r="B106" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C106" s="37"/>
+      <c r="C106" s="36"/>
       <c r="D106" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F106" s="30"/>
-      <c r="G106" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="32" t="n">
+      <c r="F106" s="29"/>
+      <c r="G106" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N106" s="32" t="n">
+      <c r="I106" s="33"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N106" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="O106" s="32"/>
-      <c r="P106" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q106" s="19" t="s">
+      <c r="O106" s="31"/>
+      <c r="P106" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q106" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4184,29 +4142,29 @@
       <c r="B107" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H107" s="32" t="n">
+      <c r="C107" s="36"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="34"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N107" s="32" t="n">
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="32"/>
+      <c r="O107" s="31"/>
+      <c r="P107" s="31"/>
+      <c r="Q107" s="31"/>
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
@@ -4215,31 +4173,31 @@
       <c r="B108" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H108" s="32" t="n">
+      <c r="C108" s="35"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N108" s="32" t="n">
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N108" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="O108" s="32"/>
-      <c r="P108" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q108" s="19" t="s">
+      <c r="O108" s="31"/>
+      <c r="P108" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q108" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4250,33 +4208,33 @@
       <c r="B109" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="32" t="n">
+      <c r="C109" s="35"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="I109" s="32"/>
-      <c r="J109" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K109" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" s="30"/>
-      <c r="M109" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N109" s="32" t="n">
+      <c r="I109" s="31"/>
+      <c r="J109" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="29"/>
+      <c r="M109" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N109" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32"/>
+      <c r="O109" s="31"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="31"/>
     </row>
     <row r="110" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
@@ -4285,29 +4243,29 @@
       <c r="B110" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="32" t="n">
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="30"/>
-      <c r="M110" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N110" s="32" t="n">
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="O110" s="34"/>
-      <c r="P110" s="34"/>
-      <c r="Q110" s="34"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
     </row>
     <row r="111" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
@@ -4316,33 +4274,33 @@
       <c r="B111" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="I111" s="32"/>
-      <c r="J111" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K111" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" s="30"/>
-      <c r="M111" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N111" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="O111" s="34"/>
-      <c r="P111" s="34"/>
-      <c r="Q111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I111" s="31"/>
+      <c r="J111" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="29"/>
+      <c r="M111" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N111" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
@@ -4351,29 +4309,29 @@
       <c r="B112" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N112" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N112" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O112" s="31"/>
+      <c r="P112" s="31"/>
+      <c r="Q112" s="31"/>
     </row>
     <row r="113" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
@@ -4382,31 +4340,31 @@
       <c r="B113" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="I113" s="34"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="34"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N113" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="O113" s="32"/>
-      <c r="P113" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q113" s="19" t="s">
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="33"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N113" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O113" s="31"/>
+      <c r="P113" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q113" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4417,29 +4375,29 @@
       <c r="B114" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="30"/>
-      <c r="M114" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N114" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="O114" s="37"/>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N114" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O114" s="36"/>
+      <c r="P114" s="31"/>
+      <c r="Q114" s="31"/>
     </row>
     <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
@@ -4448,31 +4406,31 @@
       <c r="B115" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="44"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N115" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="O115" s="32"/>
-      <c r="P115" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q115" s="19" t="s">
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N115" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O115" s="31"/>
+      <c r="P115" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q115" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4483,33 +4441,33 @@
       <c r="B116" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="32" t="n">
-        <v>12</v>
-      </c>
-      <c r="I116" s="32"/>
-      <c r="J116" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K116" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L116" s="30"/>
-      <c r="M116" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N116" s="32" t="n">
-        <v>12</v>
-      </c>
-      <c r="O116" s="32"/>
-      <c r="P116" s="32"/>
-      <c r="Q116" s="32"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="31" t="n">
+        <v>12</v>
+      </c>
+      <c r="I116" s="31"/>
+      <c r="J116" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L116" s="29"/>
+      <c r="M116" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N116" s="31" t="n">
+        <v>12</v>
+      </c>
+      <c r="O116" s="31"/>
+      <c r="P116" s="31"/>
+      <c r="Q116" s="31"/>
     </row>
     <row r="117" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
@@ -4518,29 +4476,29 @@
       <c r="B117" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="C117" s="36"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="32" t="n">
-        <v>13</v>
-      </c>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N117" s="32" t="n">
-        <v>13</v>
-      </c>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="34"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="31" t="n">
+        <v>13</v>
+      </c>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N117" s="31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O117" s="33"/>
+      <c r="P117" s="33"/>
+      <c r="Q117" s="33"/>
     </row>
     <row r="118" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
@@ -4549,33 +4507,33 @@
       <c r="B118" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" s="32" t="n">
+      <c r="C118" s="35"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="I118" s="32"/>
-      <c r="J118" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K118" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L118" s="30"/>
-      <c r="M118" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N118" s="32" t="n">
+      <c r="I118" s="31"/>
+      <c r="J118" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" s="29"/>
+      <c r="M118" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N118" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="O118" s="34"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="34"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="35"/>
+      <c r="Q118" s="33"/>
     </row>
     <row r="119" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
@@ -4584,29 +4542,29 @@
       <c r="B119" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="32" t="n">
-        <v>15</v>
-      </c>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="30"/>
-      <c r="M119" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N119" s="32" t="n">
-        <v>15</v>
-      </c>
-      <c r="O119" s="37"/>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N119" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="O119" s="36"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
     </row>
     <row r="120" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
@@ -4615,33 +4573,33 @@
       <c r="B120" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="32" t="n">
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="I120" s="34"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="39" t="s">
+      <c r="I120" s="33"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L120" s="30"/>
-      <c r="M120" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N120" s="32" t="n">
+      <c r="L120" s="29"/>
+      <c r="M120" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N120" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="O120" s="37"/>
+      <c r="O120" s="36"/>
       <c r="P120" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q120" s="19" t="s">
+      <c r="Q120" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4652,31 +4610,31 @@
       <c r="B121" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H121" s="32" t="n">
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="I121" s="36"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="39" t="s">
+      <c r="I121" s="35"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L121" s="30"/>
-      <c r="M121" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N121" s="32" t="n">
+      <c r="L121" s="29"/>
+      <c r="M121" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N121" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="O121" s="37"/>
-      <c r="P121" s="32"/>
-      <c r="Q121" s="32"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="31"/>
+      <c r="Q121" s="31"/>
     </row>
     <row r="122" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
@@ -4685,29 +4643,29 @@
       <c r="B122" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H122" s="32" t="n">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="31" t="n">
         <v>18</v>
       </c>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="39" t="s">
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L122" s="30"/>
-      <c r="M122" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N122" s="32" t="n">
+      <c r="L122" s="29"/>
+      <c r="M122" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N122" s="31" t="n">
         <v>18</v>
       </c>
-      <c r="O122" s="32"/>
+      <c r="O122" s="31"/>
       <c r="P122" s="10" t="s">
         <v>15</v>
       </c>
@@ -4722,31 +4680,33 @@
       <c r="B123" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="32" t="n">
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="31" t="n">
         <v>19</v>
       </c>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" s="30"/>
-      <c r="M123" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N123" s="32" t="n">
+      <c r="I123" s="36"/>
+      <c r="J123" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" s="29"/>
+      <c r="M123" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N123" s="31" t="n">
         <v>19</v>
       </c>
-      <c r="O123" s="32"/>
-      <c r="P123" s="32"/>
-      <c r="Q123" s="32"/>
+      <c r="O123" s="31"/>
+      <c r="P123" s="31"/>
+      <c r="Q123" s="31"/>
     </row>
     <row r="124" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
@@ -4755,31 +4715,31 @@
       <c r="B124" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C124" s="45"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="32" t="n">
-        <v>20</v>
-      </c>
-      <c r="I124" s="32"/>
-      <c r="J124" s="32"/>
-      <c r="K124" s="39" t="s">
+      <c r="C124" s="44"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L124" s="30"/>
-      <c r="M124" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N124" s="32" t="n">
-        <v>20</v>
-      </c>
-      <c r="O124" s="34"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="34"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N124" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
     </row>
     <row r="125" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
@@ -4788,39 +4748,37 @@
       <c r="B125" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C125" s="32"/>
-      <c r="D125" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="30"/>
-      <c r="G125" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H125" s="32" t="n">
+      <c r="C125" s="31"/>
+      <c r="D125" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="29"/>
+      <c r="G125" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="31" t="n">
         <v>21</v>
       </c>
-      <c r="I125" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J125" s="43" t="s">
+      <c r="I125" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K125" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L125" s="30"/>
-      <c r="M125" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N125" s="32" t="n">
+      <c r="J125" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="O125" s="34"/>
-      <c r="P125" s="34"/>
-      <c r="Q125" s="34"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N125" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
     </row>
     <row r="126" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
@@ -4829,33 +4787,33 @@
       <c r="B126" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C126" s="37"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" s="32" t="n">
+      <c r="C126" s="36"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="31" t="n">
         <v>22</v>
       </c>
-      <c r="I126" s="46" t="s">
+      <c r="I126" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J126" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J126" s="47"/>
-      <c r="K126" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="L126" s="30"/>
-      <c r="M126" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N126" s="32" t="n">
+      <c r="K126" s="45"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N126" s="31" t="n">
         <v>22</v>
       </c>
-      <c r="O126" s="32"/>
-      <c r="P126" s="32"/>
-      <c r="Q126" s="32"/>
+      <c r="O126" s="31"/>
+      <c r="P126" s="31"/>
+      <c r="Q126" s="31"/>
     </row>
     <row r="127" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
@@ -4864,37 +4822,37 @@
       <c r="B127" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C127" s="32"/>
-      <c r="D127" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F127" s="30"/>
-      <c r="G127" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="32" t="n">
+      <c r="C127" s="31"/>
+      <c r="D127" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="29"/>
+      <c r="G127" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="31" t="n">
         <v>23</v>
       </c>
-      <c r="I127" s="34"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="39" t="s">
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L127" s="30"/>
-      <c r="M127" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N127" s="32" t="n">
+      <c r="L127" s="29"/>
+      <c r="M127" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N127" s="31" t="n">
         <v>23</v>
       </c>
-      <c r="O127" s="32"/>
-      <c r="P127" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q127" s="19" t="s">
+      <c r="O127" s="31"/>
+      <c r="P127" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q127" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4905,31 +4863,31 @@
       <c r="B128" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H128" s="32" t="n">
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="31" t="n">
         <v>24</v>
       </c>
-      <c r="I128" s="34"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="39" t="s">
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L128" s="30"/>
-      <c r="M128" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N128" s="32" t="n">
+      <c r="L128" s="29"/>
+      <c r="M128" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N128" s="31" t="n">
         <v>24</v>
       </c>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
+      <c r="O128" s="31"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="31"/>
     </row>
     <row r="129" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
@@ -4938,33 +4896,33 @@
       <c r="B129" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="30"/>
-      <c r="G129" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="32" t="n">
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
-      <c r="K129" s="39" t="s">
+      <c r="I129" s="31"/>
+      <c r="J129" s="31"/>
+      <c r="K129" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L129" s="30"/>
-      <c r="M129" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N129" s="32" t="n">
+      <c r="L129" s="29"/>
+      <c r="M129" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N129" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="O129" s="41"/>
-      <c r="P129" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q129" s="19" t="s">
+      <c r="O129" s="40"/>
+      <c r="P129" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q129" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4975,31 +4933,31 @@
       <c r="B130" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="32" t="n">
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="31" t="n">
         <v>26</v>
       </c>
-      <c r="I130" s="32"/>
-      <c r="J130" s="32"/>
-      <c r="K130" s="39" t="s">
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L130" s="30"/>
-      <c r="M130" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N130" s="32" t="n">
+      <c r="L130" s="29"/>
+      <c r="M130" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N130" s="31" t="n">
         <v>26</v>
       </c>
-      <c r="O130" s="32"/>
-      <c r="P130" s="32"/>
-      <c r="Q130" s="32"/>
+      <c r="O130" s="31"/>
+      <c r="P130" s="31"/>
+      <c r="Q130" s="31"/>
     </row>
     <row r="131" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
@@ -5008,31 +4966,31 @@
       <c r="B131" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" s="32" t="n">
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="31" t="n">
         <v>27</v>
       </c>
-      <c r="I131" s="32"/>
-      <c r="J131" s="32"/>
-      <c r="K131" s="39" t="s">
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L131" s="30"/>
-      <c r="M131" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N131" s="32" t="n">
+      <c r="L131" s="29"/>
+      <c r="M131" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N131" s="31" t="n">
         <v>27</v>
       </c>
-      <c r="O131" s="36"/>
-      <c r="P131" s="34"/>
-      <c r="Q131" s="34"/>
+      <c r="O131" s="35"/>
+      <c r="P131" s="33"/>
+      <c r="Q131" s="33"/>
     </row>
     <row r="132" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
@@ -5041,35 +4999,35 @@
       <c r="B132" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="C132" s="32"/>
+      <c r="C132" s="31"/>
       <c r="D132" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="30"/>
-      <c r="G132" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" s="32" t="n">
+      <c r="E132" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="29"/>
+      <c r="G132" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="31" t="n">
         <v>28</v>
       </c>
-      <c r="I132" s="32"/>
-      <c r="J132" s="32"/>
-      <c r="K132" s="39" t="s">
+      <c r="I132" s="31"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L132" s="30"/>
-      <c r="M132" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N132" s="32" t="n">
+      <c r="L132" s="29"/>
+      <c r="M132" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N132" s="31" t="n">
         <v>28</v>
       </c>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34"/>
-      <c r="Q132" s="34"/>
+      <c r="O132" s="33"/>
+      <c r="P132" s="33"/>
+      <c r="Q132" s="33"/>
     </row>
     <row r="133" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
@@ -5078,31 +5036,31 @@
       <c r="B133" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="C133" s="37"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="32" t="n">
+      <c r="C133" s="36"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="31" t="n">
         <v>29</v>
       </c>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32"/>
-      <c r="K133" s="39" t="s">
+      <c r="I133" s="31"/>
+      <c r="J133" s="31"/>
+      <c r="K133" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L133" s="30"/>
-      <c r="M133" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N133" s="32" t="n">
+      <c r="L133" s="29"/>
+      <c r="M133" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N133" s="31" t="n">
         <v>29</v>
       </c>
-      <c r="O133" s="32"/>
-      <c r="P133" s="32"/>
-      <c r="Q133" s="32"/>
+      <c r="O133" s="31"/>
+      <c r="P133" s="31"/>
+      <c r="Q133" s="31"/>
     </row>
     <row r="134" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
@@ -5111,60 +5069,60 @@
       <c r="B134" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="C134" s="32"/>
+      <c r="C134" s="31"/>
       <c r="D134" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F134" s="30"/>
-      <c r="G134" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="32" t="n">
+      <c r="F134" s="29"/>
+      <c r="G134" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="I134" s="36"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="39" t="s">
+      <c r="I134" s="35"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L134" s="30"/>
-      <c r="M134" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N134" s="32" t="n">
+      <c r="L134" s="29"/>
+      <c r="M134" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N134" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="O134" s="32"/>
-      <c r="P134" s="32"/>
-      <c r="Q134" s="32"/>
+      <c r="O134" s="31"/>
+      <c r="P134" s="31"/>
+      <c r="Q134" s="31"/>
     </row>
     <row r="135" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H135" s="32" t="n">
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="31" t="n">
         <v>31</v>
       </c>
-      <c r="I135" s="36"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="39" t="s">
+      <c r="I135" s="35"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L135" s="49"/>
-      <c r="M135" s="33"/>
-      <c r="N135" s="32"/>
-      <c r="O135" s="32"/>
-      <c r="P135" s="32"/>
-      <c r="Q135" s="32"/>
+      <c r="L135" s="46"/>
+      <c r="M135" s="32"/>
+      <c r="N135" s="31"/>
+      <c r="O135" s="31"/>
+      <c r="P135" s="31"/>
+      <c r="Q135" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/flyers/Mechelen_2019-2020.xlsx
+++ b/flyers/Mechelen_2019-2020.xlsx
@@ -569,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A107" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J129" activeCellId="0" sqref="J129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="I14" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,8 +2050,8 @@
         <v>8</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="10" t="s">
-        <v>15</v>
+      <c r="D44" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>20</v>
@@ -2116,11 +2116,11 @@
         <v>10</v>
       </c>
       <c r="C46" s="7"/>
-      <c r="D46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>15</v>
+      <c r="D46" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="6" t="s">
@@ -2293,8 +2293,8 @@
         <v>15</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="18" t="s">
-        <v>20</v>
+      <c r="D51" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>20</v>
@@ -2363,11 +2363,11 @@
         <v>17</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>20</v>
+      <c r="D53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="6" t="s">
